--- a/Logboek.xlsx
+++ b/Logboek.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Delano\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davy\Documents\GitHub\Casus-blok-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Totaal" sheetId="4" r:id="rId1"/>
@@ -451,7 +451,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -467,9 +467,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -507,7 +507,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -579,7 +579,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -731,7 +731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -787,7 +787,7 @@
       <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,7 +798,7 @@
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="59.7109375" customWidth="1"/>
+    <col min="7" max="7" width="59" customWidth="1"/>
     <col min="8" max="8" width="64" customWidth="1"/>
   </cols>
   <sheetData>
@@ -910,7 +910,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8">
-        <f t="shared" ref="F5:F16" si="0">HOUR(E9)-HOUR(D9)+(MINUTE(E9)-MINUTE(D9))/60</f>
+        <f t="shared" ref="F9:F16" si="0">HOUR(E9)-HOUR(D9)+(MINUTE(E9)-MINUTE(D9))/60</f>
         <v>0</v>
       </c>
       <c r="G9" s="9"/>
@@ -1259,7 +1259,7 @@
       <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,7 +1425,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8">
-        <f t="shared" ref="F5:F37" si="0">HOUR(E13)-HOUR(D13)+(MINUTE(E13)-MINUTE(D13))/60</f>
+        <f t="shared" ref="F13:F37" si="0">HOUR(E13)-HOUR(D13)+(MINUTE(E13)-MINUTE(D13))/60</f>
         <v>0</v>
       </c>
       <c r="G13" s="9"/>
@@ -1725,18 +1725,18 @@
       <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="31.85546875" customWidth="1"/>
+    <col min="7" max="7" width="59" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1814,7 +1814,7 @@
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="13">
-        <f t="shared" ref="F5:F37" si="0">HOUR(E6)-HOUR(D6)+(MINUTE(E6)-MINUTE(D6))/60</f>
+        <f t="shared" ref="F6:F37" si="0">HOUR(E6)-HOUR(D6)+(MINUTE(E6)-MINUTE(D6))/60</f>
         <v>0</v>
       </c>
       <c r="G6" s="14"/>
@@ -2194,22 +2194,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="31.85546875" customWidth="1"/>
+    <col min="7" max="7" width="59" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2287,7 +2287,7 @@
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="13">
-        <f t="shared" ref="F6:F38" si="0">HOUR(E6)-HOUR(D6)+(MINUTE(E6)-MINUTE(D6))/60</f>
+        <f t="shared" ref="F6:F37" si="0">HOUR(E6)-HOUR(D6)+(MINUTE(E6)-MINUTE(D6))/60</f>
         <v>0</v>
       </c>
       <c r="G6" s="14"/>

--- a/Logboek.xlsx
+++ b/Logboek.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davy\Documents\GitHub\Casus-blok-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Delano\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Totaal" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
   <si>
     <t>Logboek Davy Heutmekers</t>
   </si>
@@ -69,6 +69,24 @@
   <si>
     <t>Logboek Camiel Kerkhofs</t>
   </si>
+  <si>
+    <t>Opzetten groep WhatsApp; GitHub repository aangemaakt; Logboek aangemaakt; Dropbox gedeelde map aangemaakt.</t>
+  </si>
+  <si>
+    <t>Communicatie en bestanduitwisseling tools goed ingesteld.</t>
+  </si>
+  <si>
+    <t>Maken van de functionele requirements voor de quizmaster met Camiel Kerkhofs</t>
+  </si>
+  <si>
+    <t>Drie pagina's aan functionele eisen opgesteld, op basis van de casus tekst. Dit moet gecontroleerd worden met een docent.</t>
+  </si>
+  <si>
+    <t>Maken van twee Use Case diagrammen voor het quizmaster systeem. De diagrammen hebben betrekking op de quizmaster en de deelnemers.</t>
+  </si>
+  <si>
+    <t>Use Case diagrammen zijn grotendeels uitgewerkt, misschien zijn er nog suggesties om deze uit te breiden.</t>
+  </si>
 </sst>
 </file>
 
@@ -106,7 +124,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,12 +170,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -413,22 +425,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -451,7 +447,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -467,9 +463,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -507,7 +503,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -579,7 +575,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -731,7 +727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -748,14 +744,14 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -766,7 +762,7 @@
       </c>
       <c r="E2" s="20">
         <f>SUM(Davy!E2+Delano!E2+Dennis!E2)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F2" s="23"/>
       <c r="G2" s="24"/>
@@ -787,7 +783,7 @@
       <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C1:C1048576"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,20 +794,20 @@
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="59" customWidth="1"/>
+    <col min="7" max="7" width="59.7109375" customWidth="1"/>
     <col min="8" max="8" width="64" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -829,35 +825,35 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33" t="s">
+      <c r="E3" s="28"/>
+      <c r="F3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="34"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -1259,7 +1255,7 @@
       <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G1:G1048576"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,22 +1263,21 @@
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="4" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="18.140625" customWidth="1"/>
     <col min="7" max="7" width="59" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -1293,75 +1288,108 @@
       </c>
       <c r="E2" s="20">
         <f>SUM(F5:F62)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33" t="s">
+      <c r="E3" s="28"/>
+      <c r="F3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="34"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="27"/>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="B5" s="5">
+        <v>42016</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <f>HOUR(E5)-HOUR(D5)+(MINUTE(E5)-MINUTE(D5))/60</f>
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="B6" s="10">
+        <v>42016</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.48958333333333331</v>
+      </c>
       <c r="F6" s="13">
-        <v>0</v>
-      </c>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <f>HOUR(E6)-HOUR(D6)+(MINUTE(E6)-MINUTE(D6))/60</f>
+        <v>1.5</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="B7" s="5">
+        <v>42016</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.57638888888888895</v>
+      </c>
       <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9"/>
+        <f t="shared" ref="F7:F37" si="0">HOUR(E7)-HOUR(D7)+(MINUTE(E7)-MINUTE(D7))/60</f>
+        <v>1.5</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -1370,6 +1398,7 @@
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="13">
+        <f>HOUR(E8)-HOUR(D8)+(MINUTE(E8)-MINUTE(D8))/60</f>
         <v>0</v>
       </c>
       <c r="G8" s="14"/>
@@ -1381,20 +1410,22 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="13">
-        <v>0</v>
-      </c>
-      <c r="G10" s="29"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -1403,6 +1434,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G11" s="9"/>
@@ -1414,6 +1446,7 @@
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="13">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G12" s="14"/>
@@ -1425,7 +1458,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8">
-        <f t="shared" ref="F13:F37" si="0">HOUR(E13)-HOUR(D13)+(MINUTE(E13)-MINUTE(D13))/60</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G13" s="9"/>
@@ -1708,7 +1741,7 @@
     <mergeCell ref="G3:G4"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ongeldige waarde" error="De kilometerstand moet tussen 0 en 999.999,9 liggen" sqref="F8 F6 F16 F12 F14 F26 F20 F18 F22 F24 F36 F30 F28 F32 F34 D5:E37">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ongeldige waarde" error="De kilometerstand moet tussen 0 en 999.999,9 liggen" sqref="D5:E37 F8 F6 F16 F10 F12 F14 F26 F20 F18 F22 F24 F30 F28 F32 F34 F36">
       <formula1>0</formula1>
       <formula2>999999.9</formula2>
     </dataValidation>
@@ -1722,33 +1755,33 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C1:C1048576"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="59" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -1766,35 +1799,35 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33" t="s">
+      <c r="E3" s="28"/>
+      <c r="F3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="34"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -1814,7 +1847,7 @@
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="13">
-        <f t="shared" ref="F6:F37" si="0">HOUR(E6)-HOUR(D6)+(MINUTE(E6)-MINUTE(D6))/60</f>
+        <f>HOUR(E6)-HOUR(D6)+(MINUTE(E6)-MINUTE(D6))/60</f>
         <v>0</v>
       </c>
       <c r="G6" s="14"/>
@@ -1826,7 +1859,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F6:F37" si="0">HOUR(E7)-HOUR(D7)+(MINUTE(E7)-MINUTE(D7))/60</f>
         <v>0</v>
       </c>
       <c r="G7" s="9"/>
@@ -1838,7 +1871,7 @@
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="13">
-        <f t="shared" si="0"/>
+        <f>HOUR(E8)-HOUR(D8)+(MINUTE(E8)-MINUTE(D8))/60</f>
         <v>0</v>
       </c>
       <c r="G8" s="14"/>
@@ -2194,34 +2227,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="59" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -2239,35 +2272,35 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33" t="s">
+      <c r="E3" s="28"/>
+      <c r="F3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="34"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>

--- a/Logboek.xlsx
+++ b/Logboek.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Delano\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\GitHub Repositories\Casus-blok-2\Casus-blok-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>Logboek Davy Heutmekers</t>
   </si>
@@ -86,6 +86,36 @@
   </si>
   <si>
     <t>Use Case diagrammen zijn grotendeels uitgewerkt, misschien zijn er nog suggesties om deze uit te breiden.</t>
+  </si>
+  <si>
+    <t>Bijwerken van functionele eisen. Meer eisen erbij gezet voor het LCD scherm. De werkwijze van het programma aangepast. Rekening gehouden met aannames van groep en advies van docent</t>
+  </si>
+  <si>
+    <t>Door gesprek met de docent is de opdracht duidelijker geworden. De eisen zijn beter uitgewerkt, maar moeten nog een paar aanpassingen gedaan worden, om het volledig te maken</t>
+  </si>
+  <si>
+    <t>Use Case diagram voor de buzzer aangepast naar de nieuwe eisen die in de requirements specification zijn gedefinieerd.</t>
+  </si>
+  <si>
+    <t>Buzzer use case is af, naar hoever de functionele eisen af zijn.</t>
+  </si>
+  <si>
+    <t>Overleg groepsgenoten en docent</t>
+  </si>
+  <si>
+    <t>Casus is duidelijker na het gesprek</t>
+  </si>
+  <si>
+    <t>Buzzer use case af gemaakt</t>
+  </si>
+  <si>
+    <t>Moet worden afgerond</t>
+  </si>
+  <si>
+    <t>Overleg met groepsgenoot Camiel over aanpak opdracht met arduino</t>
+  </si>
+  <si>
+    <t>Door overleg hebben we samen keuzes gemaakt die goed gekeurd moeten worden door docent</t>
   </si>
 </sst>
 </file>
@@ -762,7 +792,7 @@
       </c>
       <c r="E2" s="20">
         <f>SUM(Davy!E2+Delano!E2+Dennis!E2)</f>
-        <v>3.5</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="F2" s="23"/>
       <c r="G2" s="24"/>
@@ -1255,7 +1285,7 @@
       <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,7 +1318,7 @@
       </c>
       <c r="E2" s="20">
         <f>SUM(F5:F62)</f>
-        <v>3.5</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="2"/>
@@ -1391,65 +1421,115 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="B8" s="10">
+        <v>42017</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.40625</v>
+      </c>
       <c r="F8" s="13">
         <f>HOUR(E8)-HOUR(D8)+(MINUTE(E8)-MINUTE(D8))/60</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="B9" s="5">
+        <v>42017</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.40625</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.46875</v>
+      </c>
       <c r="F9" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <f>HOUR(E9)-HOUR(D9)+(MINUTE(E9)-MINUTE(D9))/60</f>
+        <v>1.5</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="B10" s="10">
+        <v>42017</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.5</v>
+      </c>
       <c r="F10" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="14"/>
+        <f>HOUR(E10)-HOUR(D10)+(MINUTE(E10)-MINUTE(D10))/60</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="B11" s="5">
+        <v>42017</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="F11" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="9"/>
+        <f>HOUR(E11)-HOUR(D11)+(MINUTE(E11)-MINUTE(D11))/60</f>
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="B12" s="10">
+        <v>42017</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.57291666666666663</v>
+      </c>
       <c r="F12" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="14"/>
+        <f>HOUR(E12)-HOUR(D12)+(MINUTE(E12)-MINUTE(D12))/60</f>
+        <v>0.75</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -1458,7 +1538,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8">
-        <f t="shared" si="0"/>
+        <f>HOUR(E13)-HOUR(D13)+(MINUTE(E13)-MINUTE(D13))/60</f>
         <v>0</v>
       </c>
       <c r="G13" s="9"/>
@@ -1470,7 +1550,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="13">
-        <f t="shared" si="0"/>
+        <f>HOUR(E14)-HOUR(D14)+(MINUTE(E14)-MINUTE(D14))/60</f>
         <v>0</v>
       </c>
       <c r="G14" s="14"/>
@@ -1482,7 +1562,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="8">
-        <f t="shared" si="0"/>
+        <f>HOUR(E15)-HOUR(D15)+(MINUTE(E15)-MINUTE(D15))/60</f>
         <v>0</v>
       </c>
       <c r="G15" s="9"/>
@@ -1741,7 +1821,7 @@
     <mergeCell ref="G3:G4"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ongeldige waarde" error="De kilometerstand moet tussen 0 en 999.999,9 liggen" sqref="D5:E37 F8 F6 F16 F10 F12 F14 F26 F20 F18 F22 F24 F30 F28 F32 F34 F36">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ongeldige waarde" error="De kilometerstand moet tussen 0 en 999.999,9 liggen" sqref="D5:E37 F36 F6 F16 F10 F12 F14 F26 F20 F18 F22 F24 F30 F28 F32 F34 F8">
       <formula1>0</formula1>
       <formula2>999999.9</formula2>
     </dataValidation>
@@ -1755,10 +1835,10 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6:G37"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1859,7 +1939,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="8">
-        <f t="shared" ref="F6:F37" si="0">HOUR(E7)-HOUR(D7)+(MINUTE(E7)-MINUTE(D7))/60</f>
+        <f t="shared" ref="F7:F37" si="0">HOUR(E7)-HOUR(D7)+(MINUTE(E7)-MINUTE(D7))/60</f>
         <v>0</v>
       </c>
       <c r="G7" s="9"/>

--- a/Logboek.xlsx
+++ b/Logboek.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\GitHub Repositories\Casus-blok-2\Casus-blok-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camiel\Documents\GitHub\Casus-blok-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Totaal" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
   <si>
     <t>Logboek Davy Heutmekers</t>
   </si>
@@ -116,6 +116,24 @@
   </si>
   <si>
     <t>Door overleg hebben we samen keuzes gemaakt die goed gekeurd moeten worden door docent</t>
+  </si>
+  <si>
+    <t>startbijeenkomst; samenwerkingscontract, begonnen aan functionele requirements met hele groep</t>
+  </si>
+  <si>
+    <t>met Delano de functionele requirments verder uitgewerkt, use case aangepast en mockup quiz gemaakt</t>
+  </si>
+  <si>
+    <t>feedback les van docent met hele groep. Feedback gevraagd met betrekking tot functionele requirements en feedback verwerkt</t>
+  </si>
+  <si>
+    <t>lekker opgeschoten</t>
+  </si>
+  <si>
+    <t>eisen zo goed als af, feedback nodig</t>
+  </si>
+  <si>
+    <t>feedback goed kunnen verwerken</t>
   </si>
 </sst>
 </file>
@@ -757,22 +775,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="31.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="26" t="s">
         <v>10</v>
@@ -783,7 +801,7 @@
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="25"/>
       <c r="C2" s="21"/>
@@ -816,19 +834,19 @@
       <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="59.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="59.6640625" customWidth="1"/>
     <col min="8" max="8" width="64" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="26" t="s">
         <v>0</v>
@@ -839,7 +857,7 @@
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -853,7 +871,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="27" t="s">
         <v>2</v>
@@ -872,7 +890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -885,7 +903,7 @@
       <c r="F4" s="27"/>
       <c r="G4" s="30"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
@@ -896,7 +914,7 @@
       </c>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="10"/>
       <c r="C6" s="11"/>
@@ -907,7 +925,7 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
@@ -918,7 +936,7 @@
       </c>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
@@ -929,7 +947,7 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
@@ -941,7 +959,7 @@
       </c>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
@@ -953,7 +971,7 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
@@ -965,7 +983,7 @@
       </c>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
@@ -977,7 +995,7 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
@@ -989,7 +1007,7 @@
       </c>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
@@ -1001,7 +1019,7 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
@@ -1013,7 +1031,7 @@
       </c>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
@@ -1025,7 +1043,7 @@
       </c>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
@@ -1037,7 +1055,7 @@
       </c>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="12"/>
@@ -1048,7 +1066,7 @@
       </c>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
@@ -1059,7 +1077,7 @@
       </c>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="12"/>
@@ -1070,7 +1088,7 @@
       </c>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
@@ -1081,7 +1099,7 @@
       </c>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="D22" s="12"/>
@@ -1092,7 +1110,7 @@
       </c>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
@@ -1103,7 +1121,7 @@
       </c>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
       <c r="D24" s="12"/>
@@ -1114,7 +1132,7 @@
       </c>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
@@ -1125,7 +1143,7 @@
       </c>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
@@ -1136,7 +1154,7 @@
       </c>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
@@ -1147,7 +1165,7 @@
       </c>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
@@ -1158,7 +1176,7 @@
       </c>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
@@ -1169,7 +1187,7 @@
       </c>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B30" s="10"/>
       <c r="C30" s="11"/>
       <c r="D30" s="12"/>
@@ -1180,7 +1198,7 @@
       </c>
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
@@ -1191,7 +1209,7 @@
       </c>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32" s="10"/>
       <c r="C32" s="11"/>
       <c r="D32" s="12"/>
@@ -1202,7 +1220,7 @@
       </c>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="7"/>
@@ -1213,7 +1231,7 @@
       </c>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="10"/>
       <c r="C34" s="11"/>
       <c r="D34" s="12"/>
@@ -1224,7 +1242,7 @@
       </c>
       <c r="G34" s="14"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="D35" s="7"/>
@@ -1235,7 +1253,7 @@
       </c>
       <c r="G35" s="9"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="10"/>
       <c r="C36" s="11"/>
       <c r="D36" s="12"/>
@@ -1246,7 +1264,7 @@
       </c>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="15"/>
       <c r="C37" s="16"/>
       <c r="D37" s="17"/>
@@ -1285,20 +1303,20 @@
       <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="B5:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="4" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
     <col min="7" max="7" width="59" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="26" t="s">
         <v>9</v>
@@ -1309,7 +1327,7 @@
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -1323,7 +1341,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="27" t="s">
         <v>2</v>
@@ -1342,7 +1360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -1355,7 +1373,7 @@
       <c r="F4" s="27"/>
       <c r="G4" s="30"/>
     </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
         <v>42016</v>
@@ -1377,7 +1395,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="10">
         <v>42016</v>
@@ -1399,7 +1417,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5">
         <v>42016</v>
@@ -1421,7 +1439,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="10">
         <v>42017</v>
@@ -1436,14 +1454,14 @@
         <v>0.40625</v>
       </c>
       <c r="F8" s="13">
-        <f>HOUR(E8)-HOUR(D8)+(MINUTE(E8)-MINUTE(D8))/60</f>
+        <f t="shared" ref="F8:F15" si="1">HOUR(E8)-HOUR(D8)+(MINUTE(E8)-MINUTE(D8))/60</f>
         <v>0.5</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5">
         <v>42017</v>
@@ -1458,14 +1476,14 @@
         <v>0.46875</v>
       </c>
       <c r="F9" s="8">
-        <f>HOUR(E9)-HOUR(D9)+(MINUTE(E9)-MINUTE(D9))/60</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="10">
         <v>42017</v>
@@ -1480,14 +1498,14 @@
         <v>0.5</v>
       </c>
       <c r="F10" s="13">
-        <f>HOUR(E10)-HOUR(D10)+(MINUTE(E10)-MINUTE(D10))/60</f>
+        <f t="shared" si="1"/>
         <v>0.41666666666666663</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5">
         <v>42017</v>
@@ -1502,14 +1520,14 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="F11" s="8">
-        <f>HOUR(E11)-HOUR(D11)+(MINUTE(E11)-MINUTE(D11))/60</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="10">
         <v>42017</v>
@@ -1524,50 +1542,50 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="F12" s="13">
-        <f>HOUR(E12)-HOUR(D12)+(MINUTE(E12)-MINUTE(D12))/60</f>
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8">
-        <f>HOUR(E13)-HOUR(D13)+(MINUTE(E13)-MINUTE(D13))/60</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="13">
-        <f>HOUR(E14)-HOUR(D14)+(MINUTE(E14)-MINUTE(D14))/60</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="8">
-        <f>HOUR(E15)-HOUR(D15)+(MINUTE(E15)-MINUTE(D15))/60</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
@@ -1579,7 +1597,7 @@
       </c>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
@@ -1591,7 +1609,7 @@
       </c>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="12"/>
@@ -1602,7 +1620,7 @@
       </c>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
@@ -1613,7 +1631,7 @@
       </c>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="12"/>
@@ -1624,7 +1642,7 @@
       </c>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
@@ -1635,7 +1653,7 @@
       </c>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="D22" s="12"/>
@@ -1646,7 +1664,7 @@
       </c>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
@@ -1657,7 +1675,7 @@
       </c>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
       <c r="D24" s="12"/>
@@ -1668,7 +1686,7 @@
       </c>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
@@ -1679,7 +1697,7 @@
       </c>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
@@ -1690,7 +1708,7 @@
       </c>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
@@ -1701,7 +1719,7 @@
       </c>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
@@ -1712,7 +1730,7 @@
       </c>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
@@ -1723,7 +1741,7 @@
       </c>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B30" s="10"/>
       <c r="C30" s="11"/>
       <c r="D30" s="12"/>
@@ -1734,7 +1752,7 @@
       </c>
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
@@ -1745,7 +1763,7 @@
       </c>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32" s="10"/>
       <c r="C32" s="11"/>
       <c r="D32" s="12"/>
@@ -1756,7 +1774,7 @@
       </c>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="7"/>
@@ -1767,7 +1785,7 @@
       </c>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="10"/>
       <c r="C34" s="11"/>
       <c r="D34" s="12"/>
@@ -1778,7 +1796,7 @@
       </c>
       <c r="G34" s="14"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="D35" s="7"/>
@@ -1789,7 +1807,7 @@
       </c>
       <c r="G35" s="9"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="10"/>
       <c r="C36" s="11"/>
       <c r="D36" s="12"/>
@@ -1800,7 +1818,7 @@
       </c>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="15"/>
       <c r="C37" s="16"/>
       <c r="D37" s="17"/>
@@ -1841,18 +1859,18 @@
       <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="31.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="26" t="s">
         <v>11</v>
@@ -1863,7 +1881,7 @@
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -1877,7 +1895,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="27" t="s">
         <v>2</v>
@@ -1896,7 +1914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -1909,7 +1927,7 @@
       <c r="F4" s="27"/>
       <c r="G4" s="30"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
@@ -1920,7 +1938,7 @@
       </c>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="10"/>
       <c r="C6" s="11"/>
@@ -1932,7 +1950,7 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
@@ -1944,7 +1962,7 @@
       </c>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
@@ -1956,7 +1974,7 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
@@ -1968,7 +1986,7 @@
       </c>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
@@ -1980,7 +1998,7 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
@@ -1992,7 +2010,7 @@
       </c>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
@@ -2004,7 +2022,7 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
@@ -2016,7 +2034,7 @@
       </c>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
@@ -2028,7 +2046,7 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
@@ -2040,7 +2058,7 @@
       </c>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
@@ -2052,7 +2070,7 @@
       </c>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
@@ -2064,7 +2082,7 @@
       </c>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="12"/>
@@ -2075,7 +2093,7 @@
       </c>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
@@ -2086,7 +2104,7 @@
       </c>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="12"/>
@@ -2097,7 +2115,7 @@
       </c>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
@@ -2108,7 +2126,7 @@
       </c>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="D22" s="12"/>
@@ -2119,7 +2137,7 @@
       </c>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
@@ -2130,7 +2148,7 @@
       </c>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
       <c r="D24" s="12"/>
@@ -2141,7 +2159,7 @@
       </c>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
@@ -2152,7 +2170,7 @@
       </c>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
@@ -2163,7 +2181,7 @@
       </c>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
@@ -2174,7 +2192,7 @@
       </c>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
@@ -2185,7 +2203,7 @@
       </c>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
@@ -2196,7 +2214,7 @@
       </c>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B30" s="10"/>
       <c r="C30" s="11"/>
       <c r="D30" s="12"/>
@@ -2207,7 +2225,7 @@
       </c>
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
@@ -2218,7 +2236,7 @@
       </c>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32" s="10"/>
       <c r="C32" s="11"/>
       <c r="D32" s="12"/>
@@ -2229,7 +2247,7 @@
       </c>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="7"/>
@@ -2240,7 +2258,7 @@
       </c>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="10"/>
       <c r="C34" s="11"/>
       <c r="D34" s="12"/>
@@ -2251,7 +2269,7 @@
       </c>
       <c r="G34" s="14"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="D35" s="7"/>
@@ -2262,7 +2280,7 @@
       </c>
       <c r="G35" s="9"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="10"/>
       <c r="C36" s="11"/>
       <c r="D36" s="12"/>
@@ -2273,7 +2291,7 @@
       </c>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="15"/>
       <c r="C37" s="16"/>
       <c r="D37" s="17"/>
@@ -2305,27 +2323,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="47.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="31.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="26" t="s">
         <v>12</v>
@@ -2336,7 +2354,7 @@
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -2344,13 +2362,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="20">
-        <f>SUM(F5:F62)</f>
-        <v>0</v>
+        <f>SUM(F5:F52)</f>
+        <v>11</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="27" t="s">
         <v>2</v>
@@ -2369,7 +2387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -2382,43 +2400,73 @@
       <c r="F4" s="27"/>
       <c r="G4" s="30"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="B5" s="5">
+        <v>42016</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.625</v>
+      </c>
       <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F5:F27" si="0">HOUR(E5)-HOUR(D5)+(MINUTE(E5)-MINUTE(D5))/60</f>
+        <v>6</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="B6" s="10">
+        <v>42017</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.5</v>
+      </c>
       <c r="F6" s="13">
-        <f t="shared" ref="F6:F37" si="0">HOUR(E6)-HOUR(D6)+(MINUTE(E6)-MINUTE(D6))/60</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="B7" s="5">
+        <v>42017</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="F7" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="12"/>
@@ -2429,8 +2477,7 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
@@ -2441,8 +2488,7 @@
       </c>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="12"/>
@@ -2453,8 +2499,7 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
@@ -2465,8 +2510,7 @@
       </c>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
       <c r="D12" s="12"/>
@@ -2477,8 +2521,7 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
@@ -2489,8 +2532,7 @@
       </c>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
       <c r="D14" s="12"/>
@@ -2501,8 +2543,7 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
@@ -2513,8 +2554,7 @@
       </c>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
       <c r="D16" s="12"/>
@@ -2525,8 +2565,7 @@
       </c>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
@@ -2537,7 +2576,7 @@
       </c>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="12"/>
@@ -2548,7 +2587,7 @@
       </c>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
@@ -2559,7 +2598,7 @@
       </c>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="12"/>
@@ -2570,7 +2609,7 @@
       </c>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
@@ -2581,7 +2620,7 @@
       </c>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="D22" s="12"/>
@@ -2592,7 +2631,7 @@
       </c>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
@@ -2603,7 +2642,7 @@
       </c>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
       <c r="D24" s="12"/>
@@ -2614,7 +2653,7 @@
       </c>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
@@ -2625,7 +2664,7 @@
       </c>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
@@ -2636,126 +2675,16 @@
       </c>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="14"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="14"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="9"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="14"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="15"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="19"/>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2767,7 +2696,7 @@
     <mergeCell ref="G3:G4"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ongeldige waarde" error="De kilometerstand moet tussen 0 en 999.999,9 liggen" sqref="F8 F6 F16 F10 F12 F14 F26 F20 F18 F22 F24 D5:E37 F30 F28 F32 F34 F36">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ongeldige waarde" error="De kilometerstand moet tussen 0 en 999.999,9 liggen" sqref="F18 F22 F6 F24 F16 F10 F8 F12 F14 F26 F20 D5:E27">
       <formula1>0</formula1>
       <formula2>999999.9</formula2>
     </dataValidation>
